--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -719,49 +719,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.545454803106411</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>4.545454803106411</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.675150957904</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>288.675150957904</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.692936178637448E-11</v>
+        <v>-8.695057636013427E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965604</v>
+        <v>0.9526279648965612</v>
       </c>
       <c r="Q3">
-        <v>1.457911411333336E-10</v>
+        <v>1.457211797955419E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404247</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233318</v>
+        <v>0.9526279649233322</v>
       </c>
       <c r="Q4">
-        <v>1.56491118184492E-09</v>
+        <v>1.564836256420957E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315009</v>
+        <v>0.9526279646315006</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322554</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q5">
-        <v>2.037945500625119E-09</v>
+        <v>2.037875665395964E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999979534</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315009</v>
+        <v>0.9526279646315006</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322554</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q6">
-        <v>2.037943264772128E-09</v>
+        <v>2.037868467842038E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="D2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>1.020226441408047</v>
@@ -1181,13 +1181,13 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.2400406981630192</v>
+        <v>0.2400406981630182</v>
       </c>
       <c r="P3">
-        <v>0.896073577006172</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977211</v>
+        <v>5.766209884977177</v>
       </c>
       <c r="R3">
         <v>-121.3466079609365</v>
@@ -1240,16 +1240,16 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651698</v>
+        <v>0.2400406981651686</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323202</v>
+        <v>0.8960735770323208</v>
       </c>
       <c r="Q4">
-        <v>5.7662098860181</v>
+        <v>5.766209886018066</v>
       </c>
       <c r="R4">
-        <v>-121.3466079469511</v>
+        <v>-121.346607946951</v>
       </c>
       <c r="S4">
         <v>173.4315681777209</v>
@@ -1299,16 +1299,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658867</v>
+        <v>0.2400406981658854</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410363</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365063</v>
+        <v>5.766209886365026</v>
       </c>
       <c r="R5">
-        <v>-121.3466079422893</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S5">
         <v>173.4315681774384</v>
@@ -1358,16 +1358,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658867</v>
+        <v>0.2400406981658853</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410363</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q6">
-        <v>5.766209886365057</v>
+        <v>5.766209886365022</v>
       </c>
       <c r="R6">
-        <v>-121.3466079422893</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="D2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1468,22 +1468,22 @@
         <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>1.020226441408047</v>
@@ -1548,13 +1548,13 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.2400406981630192</v>
+        <v>0.2400406981630182</v>
       </c>
       <c r="P3">
-        <v>0.896073577006172</v>
+        <v>0.8960735770061725</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977211</v>
+        <v>5.766209884977177</v>
       </c>
       <c r="R3">
         <v>-121.3466079609365</v>
@@ -1607,16 +1607,16 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651698</v>
+        <v>0.2400406981651686</v>
       </c>
       <c r="P4">
-        <v>0.8960735770323202</v>
+        <v>0.8960735770323208</v>
       </c>
       <c r="Q4">
-        <v>5.7662098860181</v>
+        <v>5.766209886018066</v>
       </c>
       <c r="R4">
-        <v>-121.3466079469511</v>
+        <v>-121.346607946951</v>
       </c>
       <c r="S4">
         <v>173.4315681777209</v>
@@ -1666,16 +1666,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658867</v>
+        <v>0.2400406981658854</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410363</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365063</v>
+        <v>5.766209886365026</v>
       </c>
       <c r="R5">
-        <v>-121.3466079422893</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S5">
         <v>173.4315681774384</v>
@@ -1725,16 +1725,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658867</v>
+        <v>0.2400406981658853</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410363</v>
+        <v>0.8960735770410369</v>
       </c>
       <c r="Q6">
-        <v>5.766209886365057</v>
+        <v>5.766209886365022</v>
       </c>
       <c r="R6">
-        <v>-121.3466079422893</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S6">
         <v>173.4315681774384</v>
@@ -1820,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.636363763754282</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>3.636363763754282</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
         <v>1.504993724976225</v>
@@ -1841,34 +1841,34 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849897</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.719824007794468E-10</v>
+        <v>1.720106461813802E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998194</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789676</v>
+        <v>0.8660254036789683</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905277</v>
+        <v>0.8660254038905281</v>
       </c>
       <c r="Q3">
-        <v>4.107066915791019E-10</v>
+        <v>4.10735388534686E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999995807</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254036546305</v>
+        <v>0.8660254036546313</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148653</v>
+        <v>0.8660254039148656</v>
       </c>
       <c r="Q4">
-        <v>3.135408861809223E-09</v>
+        <v>3.135423086971867E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.866025403646518</v>
+        <v>0.8660254036465188</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229779</v>
+        <v>0.8660254039229781</v>
       </c>
       <c r="Q5">
-        <v>4.043643024472463E-09</v>
+        <v>4.04365249920038E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.866025403646518</v>
+        <v>0.8660254036465188</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229779</v>
+        <v>0.8660254039229781</v>
       </c>
       <c r="Q6">
-        <v>4.043639538201099E-09</v>
+        <v>4.043658938516103E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2187,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.636363763754282</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>3.636363763754282</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>230.9401157662429</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
         <v>1.504993724976225</v>
@@ -2208,34 +2208,34 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845058</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849897</v>
+        <v>0.8660254037849899</v>
       </c>
       <c r="Q2">
-        <v>1.719824007794468E-10</v>
+        <v>1.720106461813802E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998194</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660254036789676</v>
+        <v>0.8660254036789683</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254038905277</v>
+        <v>0.8660254038905281</v>
       </c>
       <c r="Q3">
-        <v>4.107066915791019E-10</v>
+        <v>4.10735388534686E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999995807</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254036546305</v>
+        <v>0.8660254036546313</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148653</v>
+        <v>0.8660254039148656</v>
       </c>
       <c r="Q4">
-        <v>3.135408861809223E-09</v>
+        <v>3.135423086971867E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.866025403646518</v>
+        <v>0.8660254036465188</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254039229779</v>
+        <v>0.8660254039229781</v>
       </c>
       <c r="Q5">
-        <v>4.043643024472463E-09</v>
+        <v>4.04365249920038E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.866025403646518</v>
+        <v>0.8660254036465188</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254039229779</v>
+        <v>0.8660254039229781</v>
       </c>
       <c r="Q6">
-        <v>4.043639538201099E-09</v>
+        <v>4.043658938516103E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2575,28 +2575,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9220324944339026</v>
+        <v>0.9220324944339027</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242864</v>
       </c>
       <c r="P2">
         <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115784</v>
+        <v>5.173976904115775</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451751</v>
+        <v>0.9220324943451755</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166732</v>
+        <v>0.1964063472166735</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689191</v>
+        <v>0.8180121062689188</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114583</v>
+        <v>5.173976904114586</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549968</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -2705,19 +2705,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235484</v>
+        <v>0.9220324943235489</v>
       </c>
       <c r="O4">
         <v>0.1964063472443389</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966171</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219915</v>
+        <v>5.173976906219904</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329784</v>
+        <v>-122.1449202329786</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163395</v>
+        <v>0.9220324943163402</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535607</v>
+        <v>0.1964063472535608</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058496</v>
       </c>
       <c r="Q5">
-        <v>5.17397690692169</v>
+        <v>5.173976906921677</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256389</v>
+        <v>-122.1449202256391</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -2823,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163395</v>
+        <v>0.9220324943163402</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535608</v>
+        <v>0.1964063472535607</v>
       </c>
       <c r="P6">
         <v>0.8180121063058498</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921695</v>
+        <v>5.173976906921684</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256389</v>
+        <v>-122.1449202256391</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -2942,28 +2942,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.9220324944339026</v>
+        <v>0.9220324944339027</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242864</v>
       </c>
       <c r="P2">
         <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115784</v>
+        <v>5.173976904115775</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451751</v>
+        <v>0.9220324943451755</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166732</v>
+        <v>0.1964063472166735</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689191</v>
+        <v>0.8180121062689188</v>
       </c>
       <c r="Q3">
-        <v>5.173976904114583</v>
+        <v>5.173976904114586</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549968</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -3072,19 +3072,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9220324943235484</v>
+        <v>0.9220324943235489</v>
       </c>
       <c r="O4">
         <v>0.1964063472443389</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966171</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219915</v>
+        <v>5.173976906219904</v>
       </c>
       <c r="R4">
-        <v>-122.1449202329784</v>
+        <v>-122.1449202329786</v>
       </c>
       <c r="S4">
         <v>174.1659345844574</v>
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9220324943163395</v>
+        <v>0.9220324943163402</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535607</v>
+        <v>0.1964063472535608</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058496</v>
       </c>
       <c r="Q5">
-        <v>5.17397690692169</v>
+        <v>5.173976906921677</v>
       </c>
       <c r="R5">
-        <v>-122.1449202256389</v>
+        <v>-122.1449202256391</v>
       </c>
       <c r="S5">
         <v>174.1659345837774</v>
@@ -3190,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9220324943163395</v>
+        <v>0.9220324943163402</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535608</v>
+        <v>0.1964063472535607</v>
       </c>
       <c r="P6">
         <v>0.8180121063058498</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921695</v>
+        <v>5.173976906921684</v>
       </c>
       <c r="R6">
-        <v>-122.1449202256389</v>
+        <v>-122.1449202256391</v>
       </c>
       <c r="S6">
         <v>174.1659345837774</v>
@@ -3306,40 +3306,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
         <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394473163438</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.32439447410434</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740159</v>
+        <v>0.6350853098740151</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409387</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685334</v>
+        <v>59.99999999685335</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
         <v>5.248639108526412</v>
@@ -3386,19 +3386,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853099894125</v>
+        <v>0.6350853099894115</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.6350853098300098</v>
+        <v>0.6350853098300093</v>
       </c>
       <c r="Q3">
-        <v>60.00000000239913</v>
+        <v>60.00000000239916</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
         <v>120.0000000058974</v>
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853100298065</v>
+        <v>0.6350853100298053</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P4">
-        <v>0.6350853098168611</v>
+        <v>0.6350853098168606</v>
       </c>
       <c r="Q4">
-        <v>60.00000000166489</v>
+        <v>60.00000000166492</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
         <v>120.0000000094205</v>
@@ -3510,19 +3510,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853100432712</v>
+        <v>0.6350853100432698</v>
       </c>
       <c r="O5">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P5">
-        <v>0.6350853098124781</v>
+        <v>0.6350853098124777</v>
       </c>
       <c r="Q5">
-        <v>60.00000000142013</v>
+        <v>60.00000000142018</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
         <v>120.0000000105949</v>
@@ -3572,19 +3572,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853100432712</v>
+        <v>0.63508531004327</v>
       </c>
       <c r="O6">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P6">
-        <v>0.6350853098124781</v>
+        <v>0.6350853098124777</v>
       </c>
       <c r="Q6">
-        <v>60.00000000142013</v>
+        <v>60.00000000142018</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S6">
         <v>120.0000000105949</v>
@@ -3691,40 +3691,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
         <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394473163438</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.32439447410434</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740159</v>
+        <v>0.6350853098740151</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409387</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685334</v>
+        <v>59.99999999685335</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
         <v>5.248639108526412</v>
@@ -3771,19 +3771,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853099894125</v>
+        <v>0.6350853099894115</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.6350853098300098</v>
+        <v>0.6350853098300093</v>
       </c>
       <c r="Q3">
-        <v>60.00000000239913</v>
+        <v>60.00000000239916</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
         <v>120.0000000058974</v>
@@ -3833,19 +3833,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853100298065</v>
+        <v>0.6350853100298053</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P4">
-        <v>0.6350853098168611</v>
+        <v>0.6350853098168606</v>
       </c>
       <c r="Q4">
-        <v>60.00000000166489</v>
+        <v>60.00000000166492</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
         <v>120.0000000094205</v>
@@ -3895,19 +3895,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853100432712</v>
+        <v>0.6350853100432698</v>
       </c>
       <c r="O5">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P5">
-        <v>0.6350853098124781</v>
+        <v>0.6350853098124777</v>
       </c>
       <c r="Q5">
-        <v>60.00000000142013</v>
+        <v>60.00000000142018</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
         <v>120.0000000105949</v>
@@ -3957,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853100432712</v>
+        <v>0.63508531004327</v>
       </c>
       <c r="O6">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P6">
-        <v>0.6350853098124781</v>
+        <v>0.6350853098124777</v>
       </c>
       <c r="Q6">
-        <v>60.00000000142013</v>
+        <v>60.00000000142018</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S6">
         <v>120.0000000105949</v>
@@ -4076,31 +4076,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
         <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394473163438</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.32439447410434</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.691839887727803</v>
+        <v>0.6918398877278027</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966813</v>
+        <v>0.8378427578966807</v>
       </c>
       <c r="Q2">
         <v>40.40951795604943</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6918398877714436</v>
+        <v>0.6918398877714428</v>
       </c>
       <c r="O3">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.83784275781675</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>40.40951796258041</v>
+        <v>40.4095179625804</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S3">
-        <v>128.9574716984652</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6918398877978512</v>
+        <v>0.6918398877978503</v>
       </c>
       <c r="O4">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P4">
-        <v>0.8378427578056246</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
         <v>40.40951796344664</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S4">
         <v>128.9574717002523</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6918398878066536</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O5">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>0.8378427578019161</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q5">
         <v>40.40951796373538</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>128.9574717008481</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6918398878066537</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O6">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>0.8378427578019161</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
         <v>40.40951796373538</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S6">
-        <v>128.9574717008481</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4612,31 +4612,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
         <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394473163438</v>
+        <v>1.324394473163435</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.32439447410434</v>
+        <v>1.324394474104343</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.691839887727803</v>
+        <v>0.6918398877278027</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966813</v>
+        <v>0.8378427578966807</v>
       </c>
       <c r="Q2">
         <v>40.40951795604943</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6918398877714436</v>
+        <v>0.6918398877714428</v>
       </c>
       <c r="O3">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.83784275781675</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>40.40951796258041</v>
+        <v>40.4095179625804</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S3">
-        <v>128.9574716984652</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,19 +4754,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6918398877978512</v>
+        <v>0.6918398877978503</v>
       </c>
       <c r="O4">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P4">
-        <v>0.8378427578056246</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
         <v>40.40951796344664</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S4">
         <v>128.9574717002523</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6918398878066536</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O5">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>0.8378427578019161</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q5">
         <v>40.40951796373538</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>128.9574717008481</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6918398878066537</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O6">
-        <v>1.100000023874166</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>0.8378427578019161</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
         <v>40.40951796373538</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999618</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S6">
-        <v>128.9574717008481</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760113625</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976292</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
         <v>1.504993720695427</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541779</v>
+        <v>0.5773502692541782</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647626</v>
+        <v>59.99999999647622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999955744</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502692231756</v>
+        <v>0.5773502692231758</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P3">
-        <v>0.5773502691507323</v>
+        <v>0.5773502691507328</v>
       </c>
       <c r="Q3">
-        <v>60.00000000216506</v>
+        <v>60.00000000216502</v>
       </c>
       <c r="R3">
         <v>-89.99999999999582</v>
@@ -5139,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502692712905</v>
+        <v>0.5773502692712904</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P4">
-        <v>0.5773502691501726</v>
+        <v>0.5773502691501731</v>
       </c>
       <c r="Q4">
-        <v>59.9999999994724</v>
+        <v>59.99999999947239</v>
       </c>
       <c r="R4">
         <v>-89.99999999999582</v>
@@ -5204,16 +5204,16 @@
         <v>0.5773502692873288</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P5">
-        <v>0.5773502691499859</v>
+        <v>0.5773502691499863</v>
       </c>
       <c r="Q5">
-        <v>59.99999999857487</v>
+        <v>59.99999999857485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
         <v>120.000000009288</v>
@@ -5263,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502692873288</v>
+        <v>0.5773502692873287</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P6">
-        <v>0.5773502691499859</v>
+        <v>0.5773502691499863</v>
       </c>
       <c r="Q6">
-        <v>59.99999999857487</v>
+        <v>59.99999999857485</v>
       </c>
       <c r="R6">
         <v>-89.99999999999584</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760113625</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976292</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
         <v>1.504993720695427</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541779</v>
+        <v>0.5773502692541782</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647626</v>
+        <v>59.99999999647622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999955744</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,16 +5462,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502692231756</v>
+        <v>0.5773502692231758</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P3">
-        <v>0.5773502691507323</v>
+        <v>0.5773502691507328</v>
       </c>
       <c r="Q3">
-        <v>60.00000000216506</v>
+        <v>60.00000000216502</v>
       </c>
       <c r="R3">
         <v>-89.99999999999582</v>
@@ -5524,16 +5524,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502692712905</v>
+        <v>0.5773502692712904</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P4">
-        <v>0.5773502691501726</v>
+        <v>0.5773502691501731</v>
       </c>
       <c r="Q4">
-        <v>59.9999999994724</v>
+        <v>59.99999999947239</v>
       </c>
       <c r="R4">
         <v>-89.99999999999582</v>
@@ -5589,16 +5589,16 @@
         <v>0.5773502692873288</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P5">
-        <v>0.5773502691499859</v>
+        <v>0.5773502691499863</v>
       </c>
       <c r="Q5">
-        <v>59.99999999857487</v>
+        <v>59.99999999857485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999584</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
         <v>120.000000009288</v>
@@ -5648,16 +5648,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502692873288</v>
+        <v>0.5773502692873287</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P6">
-        <v>0.5773502691499859</v>
+        <v>0.5773502691499863</v>
       </c>
       <c r="Q6">
-        <v>59.99999999857487</v>
+        <v>59.99999999857485</v>
       </c>
       <c r="R6">
         <v>-89.99999999999584</v>
@@ -5767,31 +5767,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976292</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
         <v>1.504993720695427</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
         <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908643</v>
+        <v>0.9999999999908645</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351805</v>
+        <v>0.7472997527351809</v>
       </c>
       <c r="Q2">
         <v>41.77463363119259</v>
@@ -5847,16 +5847,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6184267550404208</v>
+        <v>0.6184267550404209</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908707</v>
+        <v>0.9999999999908711</v>
       </c>
       <c r="P3">
-        <v>0.7472997526577976</v>
+        <v>0.7472997526577981</v>
       </c>
       <c r="Q3">
-        <v>41.77463363810639</v>
+        <v>41.77463363810637</v>
       </c>
       <c r="R3">
         <v>-89.99999999999613</v>
@@ -5909,19 +5909,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6184267550800499</v>
+        <v>0.6184267550800497</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908707</v>
+        <v>0.999999999990871</v>
       </c>
       <c r="P4">
-        <v>0.7472997526545253</v>
+        <v>0.7472997526545254</v>
       </c>
       <c r="Q4">
-        <v>41.774633638175</v>
+        <v>41.77463363817498</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999613</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
         <v>128.1091583258393</v>
@@ -5974,16 +5974,16 @@
         <v>0.6184267550932595</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908707</v>
+        <v>0.9999999999908711</v>
       </c>
       <c r="P5">
-        <v>0.7472997526534343</v>
+        <v>0.7472997526534347</v>
       </c>
       <c r="Q5">
-        <v>41.77463363819788</v>
+        <v>41.77463363819786</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999613</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
         <v>128.1091583268488</v>
@@ -6033,16 +6033,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6184267550932595</v>
+        <v>0.6184267550932593</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908707</v>
+        <v>0.9999999999908711</v>
       </c>
       <c r="P6">
-        <v>0.7472997526534343</v>
+        <v>0.7472997526534345</v>
       </c>
       <c r="Q6">
-        <v>41.77463363819787</v>
+        <v>41.77463363819786</v>
       </c>
       <c r="R6">
         <v>-89.99999999999615</v>
@@ -6152,31 +6152,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976292</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
         <v>1.504993720695427</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
         <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908643</v>
+        <v>0.9999999999908645</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351805</v>
+        <v>0.7472997527351809</v>
       </c>
       <c r="Q2">
         <v>41.77463363119259</v>
@@ -6232,16 +6232,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6184267550404208</v>
+        <v>0.6184267550404209</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908707</v>
+        <v>0.9999999999908711</v>
       </c>
       <c r="P3">
-        <v>0.7472997526577976</v>
+        <v>0.7472997526577981</v>
       </c>
       <c r="Q3">
-        <v>41.77463363810639</v>
+        <v>41.77463363810637</v>
       </c>
       <c r="R3">
         <v>-89.99999999999613</v>
@@ -6294,19 +6294,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6184267550800499</v>
+        <v>0.6184267550800497</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908707</v>
+        <v>0.999999999990871</v>
       </c>
       <c r="P4">
-        <v>0.7472997526545253</v>
+        <v>0.7472997526545254</v>
       </c>
       <c r="Q4">
-        <v>41.774633638175</v>
+        <v>41.77463363817498</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999613</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
         <v>128.1091583258393</v>
@@ -6359,16 +6359,16 @@
         <v>0.6184267550932595</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908707</v>
+        <v>0.9999999999908711</v>
       </c>
       <c r="P5">
-        <v>0.7472997526534343</v>
+        <v>0.7472997526534347</v>
       </c>
       <c r="Q5">
-        <v>41.77463363819788</v>
+        <v>41.77463363819786</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999613</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
         <v>128.1091583268488</v>
@@ -6418,16 +6418,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6184267550932595</v>
+        <v>0.6184267550932593</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908707</v>
+        <v>0.9999999999908711</v>
       </c>
       <c r="P6">
-        <v>0.7472997526534343</v>
+        <v>0.7472997526534345</v>
       </c>
       <c r="Q6">
-        <v>41.77463363819787</v>
+        <v>41.77463363819786</v>
       </c>
       <c r="R6">
         <v>-89.99999999999615</v>
@@ -6537,22 +6537,22 @@
         <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>0.6350853098347087</v>
@@ -6561,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507081</v>
+        <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>-4.877417270108292E-09</v>
+        <v>-4.877408127561653E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.248639108420276</v>
+        <v>5.248639108420278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085309723775</v>
+        <v>0.6350853097237743</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0.635085309966109</v>
       </c>
       <c r="Q3">
-        <v>1.367299524833586E-09</v>
+        <v>1.367232934732555E-09</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6679,16 +6679,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853097106264</v>
+        <v>0.6350853097106257</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853100065028</v>
+        <v>0.635085310006503</v>
       </c>
       <c r="Q4">
-        <v>4.890433725540744E-09</v>
+        <v>4.890362441074423E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853097062434</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -6750,13 +6750,13 @@
         <v>0.6350853100199674</v>
       </c>
       <c r="Q5">
-        <v>6.064800177352303E-09</v>
+        <v>6.064725311643782E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999993747</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853097062434</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0.6350853100199674</v>
       </c>
       <c r="Q6">
-        <v>6.064800977473703E-09</v>
+        <v>6.064717547431725E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6922,22 +6922,22 @@
         <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>0.6350853098347087</v>
@@ -6946,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507081</v>
+        <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>-4.877417270108292E-09</v>
+        <v>-4.877408127561653E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.248639108420276</v>
+        <v>5.248639108420278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085309723775</v>
+        <v>0.6350853097237743</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0.635085309966109</v>
       </c>
       <c r="Q3">
-        <v>1.367299524833586E-09</v>
+        <v>1.367232934732555E-09</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853097106264</v>
+        <v>0.6350853097106257</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853100065028</v>
+        <v>0.635085310006503</v>
       </c>
       <c r="Q4">
-        <v>4.890433725540744E-09</v>
+        <v>4.890362441074423E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853097062434</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -7135,13 +7135,13 @@
         <v>0.6350853100199674</v>
       </c>
       <c r="Q5">
-        <v>6.064800177352303E-09</v>
+        <v>6.064725311643782E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999993747</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853097062434</v>
+        <v>0.6350853097062427</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -7197,7 +7197,7 @@
         <v>0.6350853100199674</v>
       </c>
       <c r="Q6">
-        <v>6.064800977473703E-09</v>
+        <v>6.064717547431725E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -7307,22 +7307,22 @@
         <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>0.8378427578256962</v>
@@ -7334,7 +7334,7 @@
         <v>0.6918398877011794</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504786</v>
+        <v>8.957471693504781</v>
       </c>
       <c r="R2">
         <v>-115.8807585964592</v>
@@ -7343,7 +7343,7 @@
         <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.617960382370077</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7390,13 +7390,13 @@
         <v>0.8378427577457516</v>
       </c>
       <c r="O3">
-        <v>0.402825311095216</v>
+        <v>0.4028253110952152</v>
       </c>
       <c r="P3">
-        <v>0.6918398877448082</v>
+        <v>0.6918398877448086</v>
       </c>
       <c r="Q3">
-        <v>8.957471696351691</v>
+        <v>8.957471696351641</v>
       </c>
       <c r="R3">
         <v>-115.8807585788046</v>
@@ -7449,16 +7449,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8378427577346266</v>
+        <v>0.8378427577346262</v>
       </c>
       <c r="O4">
-        <v>0.4028253110970205</v>
+        <v>0.4028253110970196</v>
       </c>
       <c r="P4">
-        <v>0.6918398877712157</v>
+        <v>0.6918398877712161</v>
       </c>
       <c r="Q4">
-        <v>8.957471698138862</v>
+        <v>8.957471698138812</v>
       </c>
       <c r="R4">
         <v>-115.8807585718119</v>
@@ -7511,16 +7511,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.837842757730918</v>
+        <v>0.8378427577309178</v>
       </c>
       <c r="O5">
-        <v>0.402825311097622</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P5">
-        <v>0.691839887780018</v>
+        <v>0.6918398877800187</v>
       </c>
       <c r="Q5">
-        <v>8.957471698734578</v>
+        <v>8.95747169873453</v>
       </c>
       <c r="R5">
         <v>-115.880758569481</v>
@@ -7573,16 +7573,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.837842757730918</v>
+        <v>0.8378427577309178</v>
       </c>
       <c r="O6">
-        <v>0.402825311097622</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P6">
-        <v>0.6918398877800181</v>
+        <v>0.6918398877800187</v>
       </c>
       <c r="Q6">
-        <v>8.957471698734585</v>
+        <v>8.957471698734532</v>
       </c>
       <c r="R6">
         <v>-115.880758569481</v>
@@ -7692,22 +7692,22 @@
         <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>0.8378427578256962</v>
@@ -7719,7 +7719,7 @@
         <v>0.6918398877011794</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504786</v>
+        <v>8.957471693504781</v>
       </c>
       <c r="R2">
         <v>-115.8807585964592</v>
@@ -7728,7 +7728,7 @@
         <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.617960382370077</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7775,13 +7775,13 @@
         <v>0.8378427577457516</v>
       </c>
       <c r="O3">
-        <v>0.402825311095216</v>
+        <v>0.4028253110952152</v>
       </c>
       <c r="P3">
-        <v>0.6918398877448082</v>
+        <v>0.6918398877448086</v>
       </c>
       <c r="Q3">
-        <v>8.957471696351691</v>
+        <v>8.957471696351641</v>
       </c>
       <c r="R3">
         <v>-115.8807585788046</v>
@@ -7834,16 +7834,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8378427577346266</v>
+        <v>0.8378427577346262</v>
       </c>
       <c r="O4">
-        <v>0.4028253110970205</v>
+        <v>0.4028253110970196</v>
       </c>
       <c r="P4">
-        <v>0.6918398877712157</v>
+        <v>0.6918398877712161</v>
       </c>
       <c r="Q4">
-        <v>8.957471698138862</v>
+        <v>8.957471698138812</v>
       </c>
       <c r="R4">
         <v>-115.8807585718119</v>
@@ -7896,16 +7896,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.837842757730918</v>
+        <v>0.8378427577309178</v>
       </c>
       <c r="O5">
-        <v>0.402825311097622</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P5">
-        <v>0.691839887780018</v>
+        <v>0.6918398877800187</v>
       </c>
       <c r="Q5">
-        <v>8.957471698734578</v>
+        <v>8.95747169873453</v>
       </c>
       <c r="R5">
         <v>-115.880758569481</v>
@@ -7958,16 +7958,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.837842757730918</v>
+        <v>0.8378427577309178</v>
       </c>
       <c r="O6">
-        <v>0.402825311097622</v>
+        <v>0.402825311097621</v>
       </c>
       <c r="P6">
-        <v>0.6918398877800181</v>
+        <v>0.6918398877800187</v>
       </c>
       <c r="Q6">
-        <v>8.957471698734585</v>
+        <v>8.957471698734532</v>
       </c>
       <c r="R6">
         <v>-115.880758569481</v>
@@ -8062,19 +8062,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.198911196109217</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>4.198911195412807</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666760314689</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>266.6666759872409</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
         <v>1.504993724976225</v>
@@ -8083,28 +8083,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691952339</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743762</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>-5.812896861783294E-09</v>
+        <v>-5.812897401698952E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.198911195821407</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,16 +8157,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502690917838</v>
+        <v>0.5773502690917843</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502692819928</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>5.928639986779939E-10</v>
+        <v>5.928800229647786E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8219,16 +8219,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502690912241</v>
+        <v>0.5773502690912249</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773502693301078</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>6.074346162704873E-09</v>
+        <v>6.074330480903747E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502690910374</v>
+        <v>0.5773502690910381</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773502693461462</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q5">
-        <v>7.901516933379681E-09</v>
+        <v>7.901488379528756E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502690910375</v>
+        <v>0.5773502690910381</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773502693461462</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q6">
-        <v>7.901515377534717E-09</v>
+        <v>7.901492180928504E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8598,19 +8598,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.198911196109217</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>4.198911195412807</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6666760314689</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>266.6666759872409</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
         <v>1.504993724976225</v>
@@ -8619,28 +8619,28 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691952339</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743762</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>-5.812896861783294E-09</v>
+        <v>-5.812897401698952E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.198911195821407</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502690917838</v>
+        <v>0.5773502690917843</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502692819928</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>5.928639986779939E-10</v>
+        <v>5.928800229647786E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8755,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502690912241</v>
+        <v>0.5773502690912249</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773502693301078</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>6.074346162704873E-09</v>
+        <v>6.074330480903747E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502690910374</v>
+        <v>0.5773502690910381</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773502693461462</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q5">
-        <v>7.901516933379681E-09</v>
+        <v>7.901488379528756E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502690910375</v>
+        <v>0.5773502690910381</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773502693461462</v>
+        <v>0.5773502693461465</v>
       </c>
       <c r="Q6">
-        <v>7.901515377534717E-09</v>
+        <v>7.901492180928504E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8995,7 +8995,7 @@
         <v>191.3456833000739</v>
       </c>
       <c r="G2">
-        <v>191.3456832773375</v>
+        <v>191.3456832773374</v>
       </c>
       <c r="H2">
         <v>1.504993724976225</v>
@@ -9004,31 +9004,31 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192562</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
         <v>0.3354590831689602</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384414</v>
+        <v>0.6184267550384416</v>
       </c>
       <c r="Q2">
-        <v>8.10915831880229</v>
+        <v>8.109158318802287</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767962</v>
+        <v>-117.0248837767961</v>
       </c>
       <c r="S2">
         <v>161.7746336318227</v>
@@ -9078,19 +9078,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7472997526418613</v>
+        <v>0.7472997526418618</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770567</v>
+        <v>0.3354590830770569</v>
       </c>
       <c r="P3">
         <v>0.6184267550841057</v>
       </c>
       <c r="Q3">
-        <v>8.109158321931384</v>
+        <v>8.109158321931378</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562165</v>
+        <v>-117.0248837562166</v>
       </c>
       <c r="S3">
         <v>161.7746336387372</v>
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7472997526385887</v>
+        <v>0.7472997526385894</v>
       </c>
       <c r="O4">
-        <v>0.3354590831006829</v>
+        <v>0.335459083100683</v>
       </c>
       <c r="P4">
-        <v>0.6184267551237346</v>
+        <v>0.6184267551237348</v>
       </c>
       <c r="Q4">
-        <v>8.109158324959887</v>
+        <v>8.10915832495987</v>
       </c>
       <c r="R4">
         <v>-117.0248837452073</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7472997526374979</v>
+        <v>0.7472997526374986</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085584</v>
+        <v>0.3354590831085583</v>
       </c>
       <c r="P5">
-        <v>0.6184267551369441</v>
+        <v>0.6184267551369445</v>
       </c>
       <c r="Q5">
-        <v>8.109158325969393</v>
+        <v>8.109158325969375</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415375</v>
+        <v>-117.0248837415376</v>
       </c>
       <c r="S5">
-        <v>161.7746336388287</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,16 +9264,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.747299752637498</v>
+        <v>0.7472997526374986</v>
       </c>
       <c r="O6">
         <v>0.3354590831085583</v>
       </c>
       <c r="P6">
-        <v>0.6184267551369443</v>
+        <v>0.6184267551369445</v>
       </c>
       <c r="Q6">
-        <v>8.109158325969389</v>
+        <v>8.109158325969377</v>
       </c>
       <c r="R6">
         <v>-117.0248837415376</v>
@@ -9380,7 +9380,7 @@
         <v>191.3456833000739</v>
       </c>
       <c r="G2">
-        <v>191.3456832773375</v>
+        <v>191.3456832773374</v>
       </c>
       <c r="H2">
         <v>1.504993724976225</v>
@@ -9389,31 +9389,31 @@
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993721246249</v>
+        <v>1.504993721246246</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
         <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192562</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
         <v>0.3354590831689602</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384414</v>
+        <v>0.6184267550384416</v>
       </c>
       <c r="Q2">
-        <v>8.10915831880229</v>
+        <v>8.109158318802287</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767962</v>
+        <v>-117.0248837767961</v>
       </c>
       <c r="S2">
         <v>161.7746336318227</v>
@@ -9463,19 +9463,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7472997526418613</v>
+        <v>0.7472997526418618</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770567</v>
+        <v>0.3354590830770569</v>
       </c>
       <c r="P3">
         <v>0.6184267550841057</v>
       </c>
       <c r="Q3">
-        <v>8.109158321931384</v>
+        <v>8.109158321931378</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562165</v>
+        <v>-117.0248837562166</v>
       </c>
       <c r="S3">
         <v>161.7746336387372</v>
@@ -9525,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7472997526385887</v>
+        <v>0.7472997526385894</v>
       </c>
       <c r="O4">
-        <v>0.3354590831006829</v>
+        <v>0.335459083100683</v>
       </c>
       <c r="P4">
-        <v>0.6184267551237346</v>
+        <v>0.6184267551237348</v>
       </c>
       <c r="Q4">
-        <v>8.109158324959887</v>
+        <v>8.10915832495987</v>
       </c>
       <c r="R4">
         <v>-117.0248837452073</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7472997526374979</v>
+        <v>0.7472997526374986</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085584</v>
+        <v>0.3354590831085583</v>
       </c>
       <c r="P5">
-        <v>0.6184267551369441</v>
+        <v>0.6184267551369445</v>
       </c>
       <c r="Q5">
-        <v>8.109158325969393</v>
+        <v>8.109158325969375</v>
       </c>
       <c r="R5">
-        <v>-117.0248837415375</v>
+        <v>-117.0248837415376</v>
       </c>
       <c r="S5">
-        <v>161.7746336388287</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.747299752637498</v>
+        <v>0.7472997526374986</v>
       </c>
       <c r="O6">
         <v>0.3354590831085583</v>
       </c>
       <c r="P6">
-        <v>0.6184267551369443</v>
+        <v>0.6184267551369445</v>
       </c>
       <c r="Q6">
-        <v>8.109158325969389</v>
+        <v>8.109158325969377</v>
       </c>
       <c r="R6">
         <v>-117.0248837415376</v>
@@ -10505,49 +10505,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.545454803106411</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>4.545454803106411</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.675150957904</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>288.675150957904</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394474186054</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.32439447410423</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.692936178637448E-11</v>
+        <v>-8.695057636013427E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965604</v>
+        <v>0.9526279648965612</v>
       </c>
       <c r="Q3">
-        <v>1.457911411333336E-10</v>
+        <v>1.457211797955419E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10656,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404247</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233318</v>
+        <v>0.9526279649233322</v>
       </c>
       <c r="Q4">
-        <v>1.56491118184492E-09</v>
+        <v>1.564836256420957E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315009</v>
+        <v>0.9526279646315006</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322554</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q5">
-        <v>2.037945500625119E-09</v>
+        <v>2.037875665395964E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999979534</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,16 +10774,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315009</v>
+        <v>0.9526279646315006</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322554</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q6">
-        <v>2.037943264772128E-09</v>
+        <v>2.037868467842038E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
